--- a/inst/extdata/rctls_dict.xlsx
+++ b/inst/extdata/rctls_dict.xlsx
@@ -662,9 +662,6 @@
     <t>rx_othtype_hf</t>
   </si>
   <si>
-    <t>rr_y</t>
-  </si>
-  <si>
     <t>rr</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>date_visit</t>
+  </si>
+  <si>
+    <t>rr_meas</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1855,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>26</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
         <v>27</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1879,7 +1879,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>28</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1895,7 +1895,7 @@
         <v>86</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1911,7 +1911,7 @@
         <v>63</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1919,7 +1919,7 @@
         <v>19</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1927,7 +1927,7 @@
         <v>64</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1935,7 +1935,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>65</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1951,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>66</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1975,7 +1975,7 @@
         <v>67</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
         <v>23</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>68</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>24</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,7 @@
         <v>25</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -2015,7 +2015,7 @@
         <v>54</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -2023,7 +2023,7 @@
         <v>55</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -2031,7 +2031,7 @@
         <v>37</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>56</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
         <v>57</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
         <v>58</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -2063,7 +2063,7 @@
         <v>59</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
         <v>60</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -2079,7 +2079,7 @@
         <v>61</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -2087,7 +2087,7 @@
         <v>62</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>46</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2103,7 +2103,7 @@
         <v>47</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -2111,7 +2111,7 @@
         <v>48</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -2119,7 +2119,7 @@
         <v>49</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -2127,7 +2127,7 @@
         <v>50</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -2135,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2143,7 +2143,7 @@
         <v>52</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2151,7 +2151,7 @@
         <v>53</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
